--- a/medicine/Enfance/École_maternelle/École_maternelle.xlsx
+++ b/medicine/Enfance/École_maternelle/École_maternelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cole_maternelle</t>
+          <t>École_maternelle</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'école maternelle est une école qui accueille de très jeunes enfants pour les préparer aux apprentissages fondamentaux de la lecture, de l'écriture et du calcul. C'est une période préparatoire à l'enseignement élémentaire : les objectifs essentiels sont la socialisation, la mise en place du langage, du nombre et du geste graphique.
 Ces établissements sont désignés suivant les pays sous le nom d'école maternelle (France, Canada francophone, Vallée d'Aoste), école enfantine (Suisse) ou encore école gardienne (anciennement en Belgique).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cole_maternelle</t>
+          <t>École_maternelle</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,18 +527,127 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Belgique
-Anciennement appelée « école gardienne » en Belgique, ou « jardin d'enfants », l'école maternelle accueille les enfants de deux ans et demi à six ans en Fédération Wallonie-Bruxelles et en Communauté flamande et de trois à six ans en Communauté germanophone[1]. Cet enseignement non-obligatoire, gratuit en Fédération Wallonie-Bruxelles depuis la rentrée 2019[2], est fréquenté par la quasi-totalité des enfants[3]. Il permet de sociabiliser l'enfant et de dépister d'éventuelles difficultés d'apprentissage avant l'entrée à l'école primaire ; avec l'enseignement primaire obligatoire il constitue l'enseignement fondamental[1].
-Canada
-Au Québec, le premier degré de l'enseignement correspond à l'éducation préscolaire, qui n'est pas obligatoire. Il concerne la prématernelle et la maternelle. Cette dernière, bien que de niveau préscolaire, est souvent intégrée aux écoles primaires du Québec.
-France
-En France, l'école maternelle est destinée aux jeunes enfants de deux à cinq ans. Depuis la rentrée 2019, l'instruction est obligatoire à partir de trois ans au lieu de six[4]. L'école maternelle française accueille environ un quart des enfants de deux ans, 95 % des enfants de trois ans et 98 % des enfants de quatre et cinq ans[Quand ?].
+          <t>Belgique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anciennement appelée « école gardienne » en Belgique, ou « jardin d'enfants », l'école maternelle accueille les enfants de deux ans et demi à six ans en Fédération Wallonie-Bruxelles et en Communauté flamande et de trois à six ans en Communauté germanophone. Cet enseignement non-obligatoire, gratuit en Fédération Wallonie-Bruxelles depuis la rentrée 2019, est fréquenté par la quasi-totalité des enfants. Il permet de sociabiliser l'enfant et de dépister d'éventuelles difficultés d'apprentissage avant l'entrée à l'école primaire ; avec l'enseignement primaire obligatoire il constitue l'enseignement fondamental.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>École_maternelle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_maternelle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Spécificités par pays</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Québec, le premier degré de l'enseignement correspond à l'éducation préscolaire, qui n'est pas obligatoire. Il concerne la prématernelle et la maternelle. Cette dernière, bien que de niveau préscolaire, est souvent intégrée aux écoles primaires du Québec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>École_maternelle</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_maternelle</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Spécificités par pays</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>En France, l'école maternelle est destinée aux jeunes enfants de deux à cinq ans. Depuis la rentrée 2019, l'instruction est obligatoire à partir de trois ans au lieu de six. L'école maternelle française accueille environ un quart des enfants de deux ans, 95 % des enfants de trois ans et 98 % des enfants de quatre et cinq ans[Quand ?].
 L'école maternelle fait partie du cycle I ou cycle des apprentissages premiers qui compte trois années :
 première année : petite section ou PS (3-4 ans) ;
 deuxième année : moyenne section ou MS (4-5 ans) ;
-troisième année : grande section ou GS (5-6 ans).
-Suisse
-En Suisse, depuis la rentrée 2010, la scolarisation obligatoire dure onze ans, et ce dès l'âge de quatre ans révolus à la rentrée d'août. Elle est répartie ainsi : deux années d'école enfantine, six années de primaire et trois années de secondaire. L'école enfantine donne une instruction préscolaire.
+troisième année : grande section ou GS (5-6 ans).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>École_maternelle</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cole_maternelle</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Spécificités par pays</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Suisse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Suisse, depuis la rentrée 2010, la scolarisation obligatoire dure onze ans, et ce dès l'âge de quatre ans révolus à la rentrée d'août. Elle est répartie ainsi : deux années d'école enfantine, six années de primaire et trois années de secondaire. L'école enfantine donne une instruction préscolaire.
 </t>
         </is>
       </c>
